--- a/plots/avgowd_multipath.xlsx
+++ b/plots/avgowd_multipath.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7DF25-E47B-994C-BE1E-CE8AB20C3471}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C7E2F-8B22-0547-8DE1-C3C4BC7A6860}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A8E479D3-9636-E346-8216-EDDA1880715F}"/>
   </bookViews>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8376A041-0355-2B40-9791-7BB881619B62}" name="avgowd_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_multipath_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="avgowd_multipath_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/avgowd_multipath_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -125,7 +125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -138,12 +138,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Detail 3 Hop OWD</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -162,7 +162,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -207,7 +207,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1747,7 +1747,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2003,7 +2002,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2035,12 +2034,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2084,7 +2078,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2097,14 +2091,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>3</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Hop OWD</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2121,7 +2115,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2166,7 +2160,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3962,7 +3956,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3994,12 +3988,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5144,10 +5133,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5174,16 +5163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5214,7 +5203,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_multipath_out" connectionId="1" xr16:uid="{5739FDA1-78CC-0F47-9215-376AA50C4F31}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="avgowd_multipath_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5516,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4D83C-E362-D241-BAB8-A4E724F1AE65}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/avgowd_multipath.xlsx
+++ b/plots/avgowd_multipath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C7E2F-8B22-0547-8DE1-C3C4BC7A6860}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79138F7E-490D-0644-9430-62BDC638922F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A8E479D3-9636-E346-8216-EDDA1880715F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>OWD</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2927,7 +2927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3725,7 +3725,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3738,7 +3738,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -3757,7 +3757,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3844,7 +3844,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3857,7 +3857,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>ms</a:t>
                 </a:r>
               </a:p>
@@ -3876,7 +3876,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5505,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4D83C-E362-D241-BAB8-A4E724F1AE65}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
